--- a/assets/metadado.xlsx
+++ b/assets/metadado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f054485a52af266/Github/data-quality/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{65039DC3-C5C0-47FD-8800-2D5AA07A536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2420D2-3833-4934-9696-8A841F4D8530}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{65039DC3-C5C0-47FD-8800-2D5AA07A536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F38CE939-03B3-4EFA-A9DF-F711947C40EA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25125" yWindow="6525" windowWidth="21600" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>tabela</t>
   </si>
@@ -148,13 +148,7 @@
     <t>variavel</t>
   </si>
   <si>
-    <t>distribution_validation</t>
-  </si>
-  <si>
     <t>operator</t>
-  </si>
-  <si>
-    <t>category</t>
   </si>
   <si>
     <t>value</t>
@@ -736,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1130BB0A-072A-4795-BA5F-4A9778D14463}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -748,12 +742,11 @@
     <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.53125" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -775,14 +768,8 @@
       <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -790,48 +777,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="I4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.9</v>
-      </c>
-      <c r="I5">
+      <c r="G4">
         <v>0.05</v>
       </c>
     </row>

--- a/assets/metadado.xlsx
+++ b/assets/metadado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f054485a52af266/Github/data-quality/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{65039DC3-C5C0-47FD-8800-2D5AA07A536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F38CE939-03B3-4EFA-A9DF-F711947C40EA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{65039DC3-C5C0-47FD-8800-2D5AA07A536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB02F0D-C050-4A6E-88F6-A8EA779E2FCB}"/>
   <bookViews>
-    <workbookView xWindow="-25125" yWindow="6525" windowWidth="21600" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-25620" yWindow="4425" windowWidth="22950" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -498,17 +498,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" customWidth="1"/>
     <col min="3" max="3" width="13.9296875" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53125" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="11.06640625" customWidth="1"/>
     <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
@@ -732,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1130BB0A-072A-4795-BA5F-4A9778D14463}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
